--- a/SubRES_TMPL/SubRES_TRA_DE.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C739EB-2C7B-4476-8001-1BD5AA6B93E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C72E2C-1A7E-41E5-9DC5-8CB6AA49B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="310">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -4798,6 +4798,9 @@
   </si>
   <si>
     <t>KRE_ship_DE</t>
+  </si>
+  <si>
+    <t>H2_COMP</t>
   </si>
 </sst>
 </file>
@@ -5162,7 +5165,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5383,6 +5386,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -8100,7 +8104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -17471,8 +17475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17699,8 +17703,8 @@
       <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="F11" t="s">
-        <v>156</v>
+      <c r="F11" s="100" t="s">
+        <v>309</v>
       </c>
       <c r="G11" t="s">
         <v>299</v>
@@ -17858,8 +17862,8 @@
         <v>249</v>
       </c>
       <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>156</v>
+      <c r="F14" s="100" t="s">
+        <v>309</v>
       </c>
       <c r="G14" t="s">
         <v>299</v>

--- a/SubRES_TMPL/SubRES_TRA_DE.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04293771-CA76-4F3F-B2BD-49CB65B5CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF118CD-CEFD-4F3B-B45C-81DA1C2A1C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -7811,7 +7811,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8066,14 +8066,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="80">
-        <f>'JET FUEL'!J18</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R11" s="80">
         <f>'JET FUEL'!J19</f>
         <v>9.8872405206880537E-2</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="80">
+        <f>'JET FUEL'!J18</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="T11" s="82"/>
       <c r="Y11" s="67" t="s">
         <v>224</v>
@@ -8144,12 +8146,15 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>Q11</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S13">
+        <f>S11</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="T13" s="76"/>
       <c r="Y13" s="70" t="s">
@@ -8219,12 +8224,15 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>Q13</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R15">
         <f>R13</f>
         <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S15">
+        <f>S13</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="Y15" t="s">
         <v>239</v>
@@ -17186,7 +17194,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17635,14 +17643,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'H2'!M20</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R14" s="80">
         <f>'H2'!M21</f>
         <v>0.62036278844551129</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'H2'!M20</f>
+        <v>124.07255768910225</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -17675,12 +17685,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.62036278844551129</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>124.07255768910225</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -17714,12 +17727,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>'H2'!N20</f>
-        <v>88.623255492215904</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R18">
         <f>'H2'!N21</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S18">
+        <f>'H2'!N20</f>
+        <v>88.623255492215904</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -21273,7 +21289,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21744,14 +21760,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'NH3'!M11</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R14" s="80">
         <f>'NH3'!N12</f>
         <v>0.51123688365384623</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'NH3'!M11</f>
+        <v>105.70687448860785</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -21783,12 +21801,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -21822,12 +21843,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S18">
+        <f>S14</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -24189,7 +24213,7 @@
   <dimension ref="C3:AF20"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24519,14 +24543,17 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <f>METHANOL!I18</f>
-        <v>39.212826970469628</v>
+      <c r="Q11" s="80">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R11">
         <f>METHANOL!I19</f>
         <v>0.21377333856019948</v>
       </c>
+      <c r="S11">
+        <f>METHANOL!I18</f>
+        <v>39.212826970469628</v>
+      </c>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
@@ -24540,7 +24567,6 @@
         <v>4.7885017880796183E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="S12" s="76"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -24558,14 +24584,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>Q11</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13">
+        <f>S11</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
@@ -24582,7 +24610,6 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="S14" s="76"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -24599,14 +24626,16 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>Q13</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="R15">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15">
+        <f>S13</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">

--- a/SubRES_TMPL/SubRES_TRA_DE.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF118CD-CEFD-4F3B-B45C-81DA1C2A1C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D36932-1539-4D1F-B0B3-02F35A080EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -7810,7 +7810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11:Q18"/>
     </sheetView>
   </sheetViews>
@@ -12356,8 +12356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12615,9 +12615,7 @@
         <f>'Transmission lines'!G8*'Transmission lines'!O36</f>
         <v>8.646486544165823</v>
       </c>
-      <c r="T11" s="76">
-        <v>1.5</v>
-      </c>
+      <c r="T11" s="76"/>
       <c r="Y11" s="67" t="s">
         <v>224</v>
       </c>
@@ -12655,9 +12653,7 @@
         <f>'Transmission lines'!Q36</f>
         <v>9.0657157670533586</v>
       </c>
-      <c r="T12" s="76">
-        <v>1.5</v>
-      </c>
+      <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>225</v>
       </c>
@@ -12707,9 +12703,6 @@
       <c r="R13">
         <f>'Transmission lines'!R36</f>
         <v>9.505271528405407</v>
-      </c>
-      <c r="T13">
-        <v>1.5</v>
       </c>
       <c r="Y13" s="70" t="s">
         <v>231</v>
@@ -17194,7 +17187,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q19"/>
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17548,9 +17541,7 @@
         <f>'H2'!$F$54</f>
         <v>8.7728249235000014E-2</v>
       </c>
-      <c r="T11" s="76">
-        <v>1</v>
-      </c>
+      <c r="T11" s="76"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I12" s="72">
@@ -17577,9 +17568,7 @@
         <f>'H2'!$F$54</f>
         <v>8.7728249235000014E-2</v>
       </c>
-      <c r="T12" s="76">
-        <v>1</v>
-      </c>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I13">
@@ -17605,9 +17594,7 @@
         <f>'H2'!G54</f>
         <v>6.579618692625E-2</v>
       </c>
-      <c r="T13" s="76">
-        <v>1</v>
-      </c>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" s="80" t="s">
@@ -21289,7 +21276,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q20"/>
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21641,9 +21628,7 @@
         <f>'NH3'!$D$49</f>
         <v>3.5091299694000003E-2</v>
       </c>
-      <c r="T11" s="76">
-        <v>1</v>
-      </c>
+      <c r="T11" s="76"/>
       <c r="Y11" t="s">
         <v>239</v>
       </c>
@@ -21694,9 +21679,7 @@
         <f>'NH3'!$D$49</f>
         <v>3.5091299694000003E-2</v>
       </c>
-      <c r="T12" s="76">
-        <v>1</v>
-      </c>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I13">
@@ -21722,9 +21705,7 @@
         <f>'NH3'!$D$49</f>
         <v>3.5091299694000003E-2</v>
       </c>
-      <c r="T13" s="76">
-        <v>1</v>
-      </c>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
